--- a/tests/advanced/randomized_tests/b04.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b04.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>31</v>
       </c>
       <c r="D2">
-        <v>6.763637065887451E-05</v>
+        <v>8.24793241918087E-05</v>
       </c>
       <c r="E2">
-        <v>0.01336884591728449</v>
+        <v>0.01425322098657489</v>
       </c>
       <c r="F2">
         <v>31</v>
       </c>
       <c r="G2">
-        <v>0.001443770248442888</v>
+        <v>0.001233034767210484</v>
       </c>
       <c r="H2">
-        <v>0.002263053320348263</v>
+        <v>0.003044792916625738</v>
       </c>
       <c r="I2">
-        <v>0.00321275694295764</v>
+        <v>0.003799600526690483</v>
       </c>
       <c r="J2">
-        <v>0.004511563573032618</v>
+        <v>0.004561311565339565</v>
       </c>
       <c r="K2">
-        <v>0.0006244969554245472</v>
+        <v>0.0004860507324337959</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>0.001611789222806692</v>
+        <v>0.001491243951022625</v>
       </c>
       <c r="E3">
-        <v>0.02167546283453703</v>
+        <v>0.02403086423873901</v>
       </c>
       <c r="F3">
         <v>31</v>
       </c>
       <c r="G3">
-        <v>0.001901315990835428</v>
+        <v>0.00196731323376298</v>
       </c>
       <c r="H3">
-        <v>0.00479231821373105</v>
+        <v>0.00533769279718399</v>
       </c>
       <c r="I3">
-        <v>0.004678968340158463</v>
+        <v>0.004900505300611258</v>
       </c>
       <c r="J3">
-        <v>0.007598855067044497</v>
+        <v>0.009090162348002195</v>
       </c>
       <c r="K3">
-        <v>0.0008266563527286053</v>
+        <v>0.0007988982833921909</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>31</v>
       </c>
       <c r="D4">
-        <v>0.001263190992176533</v>
+        <v>0.001304802019149065</v>
       </c>
       <c r="E4">
-        <v>0.02167622931301594</v>
+        <v>0.02408290188759565</v>
       </c>
       <c r="F4">
         <v>31</v>
       </c>
       <c r="G4">
-        <v>0.001906550489366055</v>
+        <v>0.001909180544316769</v>
       </c>
       <c r="H4">
-        <v>0.004437832627445459</v>
+        <v>0.005269759800285101</v>
       </c>
       <c r="I4">
-        <v>0.004697336815297604</v>
+        <v>0.005247276742011309</v>
       </c>
       <c r="J4">
-        <v>0.007923835422843695</v>
+        <v>0.008864318020641804</v>
       </c>
       <c r="K4">
-        <v>0.0008239247836172581</v>
+        <v>0.000744241289794445</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>0.0001552808098495007</v>
+        <v>0.0001092320308089256</v>
       </c>
       <c r="E5">
-        <v>0.01705160085111856</v>
+        <v>0.01391712389886379</v>
       </c>
       <c r="F5">
         <v>31</v>
       </c>
       <c r="G5">
-        <v>0.00163744343444705</v>
+        <v>0.001341833733022213</v>
       </c>
       <c r="H5">
-        <v>0.003116796724498272</v>
+        <v>0.002403884660452604</v>
       </c>
       <c r="I5">
-        <v>0.004643045365810394</v>
+        <v>0.003680076450109482</v>
       </c>
       <c r="J5">
-        <v>0.005402148235589266</v>
+        <v>0.004938533529639244</v>
       </c>
       <c r="K5">
-        <v>0.0006447737105190754</v>
+        <v>0.0004652114585042</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>53</v>
       </c>
       <c r="D6">
-        <v>0.001484439242631197</v>
+        <v>0.001381068956106901</v>
       </c>
       <c r="E6">
-        <v>0.04029526421800256</v>
+        <v>0.03841330064460635</v>
       </c>
       <c r="F6">
         <v>53</v>
       </c>
       <c r="G6">
-        <v>0.002862575463950634</v>
+        <v>0.002221256494522095</v>
       </c>
       <c r="H6">
-        <v>0.006521749310195446</v>
+        <v>0.005978557281196117</v>
       </c>
       <c r="I6">
-        <v>0.01810576766729355</v>
+        <v>0.02072853874415159</v>
       </c>
       <c r="J6">
-        <v>0.00864787632599473</v>
+        <v>0.006161280442029238</v>
       </c>
       <c r="K6">
-        <v>0.001190871000289917</v>
+        <v>0.001004157587885857</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>6.763637065887451E-05</v>
+        <v>8.24793241918087E-05</v>
       </c>
       <c r="E8">
-        <v>0.01336884591728449</v>
+        <v>0.01425322098657489</v>
       </c>
       <c r="F8">
         <v>31</v>
       </c>
       <c r="G8">
-        <v>0.001443770248442888</v>
+        <v>0.001233034767210484</v>
       </c>
       <c r="H8">
-        <v>0.002263053320348263</v>
+        <v>0.003044792916625738</v>
       </c>
       <c r="I8">
-        <v>0.00321275694295764</v>
+        <v>0.003799600526690483</v>
       </c>
       <c r="J8">
-        <v>0.004511563573032618</v>
+        <v>0.004561311565339565</v>
       </c>
       <c r="K8">
-        <v>0.0006244969554245472</v>
+        <v>0.0004860507324337959</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>31</v>
       </c>
       <c r="D9">
-        <v>0.001611789222806692</v>
+        <v>0.001491243951022625</v>
       </c>
       <c r="E9">
-        <v>0.02167546283453703</v>
+        <v>0.02403086423873901</v>
       </c>
       <c r="F9">
         <v>31</v>
       </c>
       <c r="G9">
-        <v>0.001901315990835428</v>
+        <v>0.00196731323376298</v>
       </c>
       <c r="H9">
-        <v>0.00479231821373105</v>
+        <v>0.00533769279718399</v>
       </c>
       <c r="I9">
-        <v>0.004678968340158463</v>
+        <v>0.004900505300611258</v>
       </c>
       <c r="J9">
-        <v>0.007598855067044497</v>
+        <v>0.009090162348002195</v>
       </c>
       <c r="K9">
-        <v>0.0008266563527286053</v>
+        <v>0.0007988982833921909</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>31</v>
       </c>
       <c r="D10">
-        <v>0.001263190992176533</v>
+        <v>0.001304802019149065</v>
       </c>
       <c r="E10">
-        <v>0.02167622931301594</v>
+        <v>0.02408290188759565</v>
       </c>
       <c r="F10">
         <v>31</v>
       </c>
       <c r="G10">
-        <v>0.001906550489366055</v>
+        <v>0.001909180544316769</v>
       </c>
       <c r="H10">
-        <v>0.004437832627445459</v>
+        <v>0.005269759800285101</v>
       </c>
       <c r="I10">
-        <v>0.004697336815297604</v>
+        <v>0.005247276742011309</v>
       </c>
       <c r="J10">
-        <v>0.007923835422843695</v>
+        <v>0.008864318020641804</v>
       </c>
       <c r="K10">
-        <v>0.0008239247836172581</v>
+        <v>0.000744241289794445</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>31</v>
       </c>
       <c r="D11">
-        <v>0.0001552808098495007</v>
+        <v>0.0001092320308089256</v>
       </c>
       <c r="E11">
-        <v>0.01705160085111856</v>
+        <v>0.01391712389886379</v>
       </c>
       <c r="F11">
         <v>31</v>
       </c>
       <c r="G11">
-        <v>0.00163744343444705</v>
+        <v>0.001341833733022213</v>
       </c>
       <c r="H11">
-        <v>0.003116796724498272</v>
+        <v>0.002403884660452604</v>
       </c>
       <c r="I11">
-        <v>0.004643045365810394</v>
+        <v>0.003680076450109482</v>
       </c>
       <c r="J11">
-        <v>0.005402148235589266</v>
+        <v>0.004938533529639244</v>
       </c>
       <c r="K11">
-        <v>0.0006447737105190754</v>
+        <v>0.0004652114585042</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>53</v>
       </c>
       <c r="D12">
-        <v>0.001484439242631197</v>
+        <v>0.001381068956106901</v>
       </c>
       <c r="E12">
-        <v>0.04029526421800256</v>
+        <v>0.03841330064460635</v>
       </c>
       <c r="F12">
         <v>53</v>
       </c>
       <c r="G12">
-        <v>0.002862575463950634</v>
+        <v>0.002221256494522095</v>
       </c>
       <c r="H12">
-        <v>0.006521749310195446</v>
+        <v>0.005978557281196117</v>
       </c>
       <c r="I12">
-        <v>0.01810576766729355</v>
+        <v>0.02072853874415159</v>
       </c>
       <c r="J12">
-        <v>0.00864787632599473</v>
+        <v>0.006161280442029238</v>
       </c>
       <c r="K12">
-        <v>0.001190871000289917</v>
+        <v>0.001004157587885857</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b04.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b04.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>68</v>
       </c>
       <c r="D2">
-        <v>68</v>
-      </c>
-      <c r="E2">
-        <v>68</v>
-      </c>
-      <c r="F2">
-        <v>68</v>
-      </c>
-      <c r="G2">
-        <v>68</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>8.24793241918087E-05</v>
+        <v>0.003335689194500446</v>
       </c>
       <c r="E2">
-        <v>0.01425322098657489</v>
+        <v>0.04407588671892881</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G2">
-        <v>0.001233034767210484</v>
+        <v>0.004546163138002157</v>
       </c>
       <c r="H2">
-        <v>0.003044792916625738</v>
+        <v>0.01058556092903018</v>
       </c>
       <c r="I2">
-        <v>0.003799600526690483</v>
+        <v>0.01415731245651841</v>
       </c>
       <c r="J2">
-        <v>0.004561311565339565</v>
+        <v>0.007977301254868507</v>
       </c>
       <c r="K2">
-        <v>0.0004860507324337959</v>
+        <v>0.002660977654159069</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>31</v>
-      </c>
-      <c r="D3">
-        <v>0.001491243951022625</v>
+        <v>450</v>
       </c>
       <c r="E3">
-        <v>0.02403086423873901</v>
-      </c>
-      <c r="F3">
-        <v>31</v>
-      </c>
-      <c r="G3">
-        <v>0.00196731323376298</v>
-      </c>
-      <c r="H3">
-        <v>0.00533769279718399</v>
-      </c>
-      <c r="I3">
-        <v>0.004900505300611258</v>
-      </c>
-      <c r="J3">
-        <v>0.009090162348002195</v>
-      </c>
-      <c r="K3">
-        <v>0.0007988982833921909</v>
+        <v>0.01318751089274883</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D4">
-        <v>0.001304802019149065</v>
+        <v>0.003335689194500446</v>
       </c>
       <c r="E4">
-        <v>0.02408290188759565</v>
+        <v>0.04407588671892881</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G4">
-        <v>0.001909180544316769</v>
+        <v>0.004546163138002157</v>
       </c>
       <c r="H4">
-        <v>0.005269759800285101</v>
+        <v>0.01058556092903018</v>
       </c>
       <c r="I4">
-        <v>0.005247276742011309</v>
+        <v>0.01415731245651841</v>
       </c>
       <c r="J4">
-        <v>0.008864318020641804</v>
+        <v>0.007977301254868507</v>
       </c>
       <c r="K4">
-        <v>0.000744241289794445</v>
+        <v>0.002660977654159069</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>0.0001092320308089256</v>
+        <v>450</v>
       </c>
       <c r="E5">
-        <v>0.01391712389886379</v>
-      </c>
-      <c r="F5">
-        <v>31</v>
-      </c>
-      <c r="G5">
-        <v>0.001341833733022213</v>
-      </c>
-      <c r="H5">
-        <v>0.002403884660452604</v>
-      </c>
-      <c r="I5">
-        <v>0.003680076450109482</v>
-      </c>
-      <c r="J5">
-        <v>0.004938533529639244</v>
-      </c>
-      <c r="K5">
-        <v>0.0004652114585042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>53</v>
-      </c>
-      <c r="D6">
-        <v>0.001381068956106901</v>
-      </c>
-      <c r="E6">
-        <v>0.03841330064460635</v>
-      </c>
-      <c r="F6">
-        <v>53</v>
-      </c>
-      <c r="G6">
-        <v>0.002221256494522095</v>
-      </c>
-      <c r="H6">
-        <v>0.005978557281196117</v>
-      </c>
-      <c r="I6">
-        <v>0.02072853874415159</v>
-      </c>
-      <c r="J6">
-        <v>0.006161280442029238</v>
-      </c>
-      <c r="K6">
-        <v>0.001004157587885857</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>450</v>
-      </c>
-      <c r="E7">
-        <v>0.01318751089274883</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>8.24793241918087E-05</v>
-      </c>
-      <c r="E8">
-        <v>0.01425322098657489</v>
-      </c>
-      <c r="F8">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>0.001233034767210484</v>
-      </c>
-      <c r="H8">
-        <v>0.003044792916625738</v>
-      </c>
-      <c r="I8">
-        <v>0.003799600526690483</v>
-      </c>
-      <c r="J8">
-        <v>0.004561311565339565</v>
-      </c>
-      <c r="K8">
-        <v>0.0004860507324337959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>31</v>
-      </c>
-      <c r="D9">
-        <v>0.001491243951022625</v>
-      </c>
-      <c r="E9">
-        <v>0.02403086423873901</v>
-      </c>
-      <c r="F9">
-        <v>31</v>
-      </c>
-      <c r="G9">
-        <v>0.00196731323376298</v>
-      </c>
-      <c r="H9">
-        <v>0.00533769279718399</v>
-      </c>
-      <c r="I9">
-        <v>0.004900505300611258</v>
-      </c>
-      <c r="J9">
-        <v>0.009090162348002195</v>
-      </c>
-      <c r="K9">
-        <v>0.0007988982833921909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>0.001304802019149065</v>
-      </c>
-      <c r="E10">
-        <v>0.02408290188759565</v>
-      </c>
-      <c r="F10">
-        <v>31</v>
-      </c>
-      <c r="G10">
-        <v>0.001909180544316769</v>
-      </c>
-      <c r="H10">
-        <v>0.005269759800285101</v>
-      </c>
-      <c r="I10">
-        <v>0.005247276742011309</v>
-      </c>
-      <c r="J10">
-        <v>0.008864318020641804</v>
-      </c>
-      <c r="K10">
-        <v>0.000744241289794445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>31</v>
-      </c>
-      <c r="D11">
-        <v>0.0001092320308089256</v>
-      </c>
-      <c r="E11">
-        <v>0.01391712389886379</v>
-      </c>
-      <c r="F11">
-        <v>31</v>
-      </c>
-      <c r="G11">
-        <v>0.001341833733022213</v>
-      </c>
-      <c r="H11">
-        <v>0.002403884660452604</v>
-      </c>
-      <c r="I11">
-        <v>0.003680076450109482</v>
-      </c>
-      <c r="J11">
-        <v>0.004938533529639244</v>
-      </c>
-      <c r="K11">
-        <v>0.0004652114585042</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>53</v>
-      </c>
-      <c r="D12">
-        <v>0.001381068956106901</v>
-      </c>
-      <c r="E12">
-        <v>0.03841330064460635</v>
-      </c>
-      <c r="F12">
-        <v>53</v>
-      </c>
-      <c r="G12">
-        <v>0.002221256494522095</v>
-      </c>
-      <c r="H12">
-        <v>0.005978557281196117</v>
-      </c>
-      <c r="I12">
-        <v>0.02072853874415159</v>
-      </c>
-      <c r="J12">
-        <v>0.006161280442029238</v>
-      </c>
-      <c r="K12">
-        <v>0.001004157587885857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>450</v>
-      </c>
-      <c r="E13">
         <v>0.01318751089274883</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b04.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b04.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>68</v>
       </c>
       <c r="D2">
+        <v>68</v>
+      </c>
+      <c r="E2">
+        <v>68</v>
+      </c>
+      <c r="F2">
+        <v>68</v>
+      </c>
+      <c r="G2">
+        <v>68</v>
+      </c>
+      <c r="H2">
+        <v>68</v>
+      </c>
+      <c r="I2">
+        <v>68</v>
+      </c>
+      <c r="J2">
+        <v>68</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>0.003335689194500446</v>
+        <v>0.0002227346412837505</v>
       </c>
       <c r="E2">
-        <v>0.04407588671892881</v>
+        <v>0.01600076211616397</v>
       </c>
       <c r="F2">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>0.004546163138002157</v>
+        <v>0.002042617183178663</v>
       </c>
       <c r="H2">
-        <v>0.01058556092903018</v>
+        <v>0.003329688217490911</v>
       </c>
       <c r="I2">
-        <v>0.01415731245651841</v>
+        <v>0.003308859188109636</v>
       </c>
       <c r="J2">
-        <v>0.007977301254868507</v>
+        <v>0.004576148930937052</v>
       </c>
       <c r="K2">
-        <v>0.002660977654159069</v>
+        <v>0.0011737160384655</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>450</v>
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>0.003489764872938395</v>
       </c>
       <c r="E3">
-        <v>0.01318751089274883</v>
+        <v>0.04905869998037815</v>
+      </c>
+      <c r="F3">
+        <v>76</v>
+      </c>
+      <c r="G3">
+        <v>0.005264452192932367</v>
+      </c>
+      <c r="H3">
+        <v>0.01200529327616096</v>
+      </c>
+      <c r="I3">
+        <v>0.01449865568429232</v>
+      </c>
+      <c r="J3">
+        <v>0.009405308868736029</v>
+      </c>
+      <c r="K3">
+        <v>0.003172941971570253</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>0.003335689194500446</v>
+        <v>0.001252743415534496</v>
       </c>
       <c r="E4">
-        <v>0.04407588671892881</v>
+        <v>0.02119881985709071</v>
       </c>
       <c r="F4">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>0.004546163138002157</v>
+        <v>0.002279097680002451</v>
       </c>
       <c r="H4">
-        <v>0.01058556092903018</v>
+        <v>0.004854766651988029</v>
       </c>
       <c r="I4">
-        <v>0.01415731245651841</v>
+        <v>0.003842681646347046</v>
       </c>
       <c r="J4">
-        <v>0.007977301254868507</v>
+        <v>0.006964125204831362</v>
       </c>
       <c r="K4">
-        <v>0.002660977654159069</v>
+        <v>0.001357644330710173</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>0.0001160041429102421</v>
+      </c>
+      <c r="E5">
+        <v>0.0141033842228353</v>
+      </c>
+      <c r="F5">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>0.001742953900247812</v>
+      </c>
+      <c r="H5">
+        <v>0.002749479841440916</v>
+      </c>
+      <c r="I5">
+        <v>0.00309676444157958</v>
+      </c>
+      <c r="J5">
+        <v>0.004177559167146683</v>
+      </c>
+      <c r="K5">
+        <v>0.001024235039949417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>0.0003517232835292816</v>
+      </c>
+      <c r="E6">
+        <v>0.03015272878110409</v>
+      </c>
+      <c r="F6">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <v>0.003066968638449907</v>
+      </c>
+      <c r="H6">
+        <v>0.005578089039772749</v>
+      </c>
+      <c r="I6">
+        <v>0.01345444982871413</v>
+      </c>
+      <c r="J6">
+        <v>0.003557617776095867</v>
+      </c>
+      <c r="K6">
+        <v>0.001890477724373341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>219</v>
+      </c>
+      <c r="D7">
+        <v>0.005136227235198021</v>
+      </c>
+      <c r="E7">
+        <v>0.1092602489516139</v>
+      </c>
+      <c r="F7">
+        <v>219</v>
+      </c>
+      <c r="G7">
+        <v>0.00967329042032361</v>
+      </c>
+      <c r="H7">
+        <v>0.02207787521183491</v>
+      </c>
+      <c r="I7">
+        <v>0.0537374964915216</v>
+      </c>
+      <c r="J7">
+        <v>0.008470784872770309</v>
+      </c>
+      <c r="K7">
+        <v>0.006519030313938856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>0.002254413906484842</v>
+      </c>
+      <c r="E8">
+        <v>0.03728881012648344</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
+      </c>
+      <c r="G8">
+        <v>0.003404791001230478</v>
+      </c>
+      <c r="H8">
+        <v>0.008272004313766956</v>
+      </c>
+      <c r="I8">
+        <v>0.01414136774837971</v>
+      </c>
+      <c r="J8">
+        <v>0.006573511753231287</v>
+      </c>
+      <c r="K8">
+        <v>0.001998107880353928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>0.0004489999264478683</v>
+      </c>
+      <c r="E9">
+        <v>0.03043067082762718</v>
+      </c>
+      <c r="F9">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>0.00328823970630765</v>
+      </c>
+      <c r="H9">
+        <v>0.006070613395422697</v>
+      </c>
+      <c r="I9">
+        <v>0.01328595634549856</v>
+      </c>
+      <c r="J9">
+        <v>0.003008916042745113</v>
+      </c>
+      <c r="K9">
+        <v>0.001981800887733698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>450</v>
       </c>
-      <c r="E5">
+      <c r="E10">
+        <v>0.01318751089274883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>0.0002227346412837505</v>
+      </c>
+      <c r="E11">
+        <v>0.01600076211616397</v>
+      </c>
+      <c r="F11">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>0.002042617183178663</v>
+      </c>
+      <c r="H11">
+        <v>0.003329688217490911</v>
+      </c>
+      <c r="I11">
+        <v>0.003308859188109636</v>
+      </c>
+      <c r="J11">
+        <v>0.004576148930937052</v>
+      </c>
+      <c r="K11">
+        <v>0.0011737160384655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <v>0.003489764872938395</v>
+      </c>
+      <c r="E12">
+        <v>0.04905869998037815</v>
+      </c>
+      <c r="F12">
+        <v>76</v>
+      </c>
+      <c r="G12">
+        <v>0.005264452192932367</v>
+      </c>
+      <c r="H12">
+        <v>0.01200529327616096</v>
+      </c>
+      <c r="I12">
+        <v>0.01449865568429232</v>
+      </c>
+      <c r="J12">
+        <v>0.009405308868736029</v>
+      </c>
+      <c r="K12">
+        <v>0.003172941971570253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0.001252743415534496</v>
+      </c>
+      <c r="E13">
+        <v>0.02119881985709071</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>0.002279097680002451</v>
+      </c>
+      <c r="H13">
+        <v>0.004854766651988029</v>
+      </c>
+      <c r="I13">
+        <v>0.003842681646347046</v>
+      </c>
+      <c r="J13">
+        <v>0.006964125204831362</v>
+      </c>
+      <c r="K13">
+        <v>0.001357644330710173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>0.0001160041429102421</v>
+      </c>
+      <c r="E14">
+        <v>0.0141033842228353</v>
+      </c>
+      <c r="F14">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>0.001742953900247812</v>
+      </c>
+      <c r="H14">
+        <v>0.002749479841440916</v>
+      </c>
+      <c r="I14">
+        <v>0.00309676444157958</v>
+      </c>
+      <c r="J14">
+        <v>0.004177559167146683</v>
+      </c>
+      <c r="K14">
+        <v>0.001024235039949417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>0.0003517232835292816</v>
+      </c>
+      <c r="E15">
+        <v>0.03015272878110409</v>
+      </c>
+      <c r="F15">
+        <v>53</v>
+      </c>
+      <c r="G15">
+        <v>0.003066968638449907</v>
+      </c>
+      <c r="H15">
+        <v>0.005578089039772749</v>
+      </c>
+      <c r="I15">
+        <v>0.01345444982871413</v>
+      </c>
+      <c r="J15">
+        <v>0.003557617776095867</v>
+      </c>
+      <c r="K15">
+        <v>0.001890477724373341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>219</v>
+      </c>
+      <c r="D16">
+        <v>0.005136227235198021</v>
+      </c>
+      <c r="E16">
+        <v>0.1092602489516139</v>
+      </c>
+      <c r="F16">
+        <v>219</v>
+      </c>
+      <c r="G16">
+        <v>0.00967329042032361</v>
+      </c>
+      <c r="H16">
+        <v>0.02207787521183491</v>
+      </c>
+      <c r="I16">
+        <v>0.0537374964915216</v>
+      </c>
+      <c r="J16">
+        <v>0.008470784872770309</v>
+      </c>
+      <c r="K16">
+        <v>0.006519030313938856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>0.002254413906484842</v>
+      </c>
+      <c r="E17">
+        <v>0.03728881012648344</v>
+      </c>
+      <c r="F17">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <v>0.003404791001230478</v>
+      </c>
+      <c r="H17">
+        <v>0.008272004313766956</v>
+      </c>
+      <c r="I17">
+        <v>0.01414136774837971</v>
+      </c>
+      <c r="J17">
+        <v>0.006573511753231287</v>
+      </c>
+      <c r="K17">
+        <v>0.001998107880353928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>0.0004489999264478683</v>
+      </c>
+      <c r="E18">
+        <v>0.03043067082762718</v>
+      </c>
+      <c r="F18">
+        <v>53</v>
+      </c>
+      <c r="G18">
+        <v>0.00328823970630765</v>
+      </c>
+      <c r="H18">
+        <v>0.006070613395422697</v>
+      </c>
+      <c r="I18">
+        <v>0.01328595634549856</v>
+      </c>
+      <c r="J18">
+        <v>0.003008916042745113</v>
+      </c>
+      <c r="K18">
+        <v>0.001981800887733698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>450</v>
+      </c>
+      <c r="E19">
         <v>0.01318751089274883</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
